--- a/medicine/Psychotrope/Mounir_Erramach/Mounir_Erramach.xlsx
+++ b/medicine/Psychotrope/Mounir_Erramach/Mounir_Erramach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mounir Erramach (en arabe : منير الرماش), né en 1973 ou 1974 à Ceuta (Espagne), est un ancien baron de la drogue maroco-espagnol.
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mounir Erramach est né en 1973 ou 1974 à Ceuta[1] et possède la double nationalité maroco-espagnole. Il déménage avec sa mère dans la ville de Tétouan, au Nord du Maroc, où il se lance dans la contrebande de tabac - ce qui lui vaut d'être condamné à trois reprises entre 1994 et 1997 - puis dans le trafic de haschich avant d'être à la tête d'un réseau d'exportation de cannabis et de cocaïne depuis Nord-Ouest Maroc vers l'Europe[2].
-En août 2002, il fait l'objet d'une première arrestation en lien avec ses activités de narcotrafiquant mais réussit à « acheter » sa liberté pour 20 millions de dirhams marocains (soit 1,9 million d'euros)[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mounir Erramach est né en 1973 ou 1974 à Ceuta et possède la double nationalité maroco-espagnole. Il déménage avec sa mère dans la ville de Tétouan, au Nord du Maroc, où il se lance dans la contrebande de tabac - ce qui lui vaut d'être condamné à trois reprises entre 1994 et 1997 - puis dans le trafic de haschich avant d'être à la tête d'un réseau d'exportation de cannabis et de cocaïne depuis Nord-Ouest Maroc vers l'Europe.
+En août 2002, il fait l'objet d'une première arrestation en lien avec ses activités de narcotrafiquant mais réussit à « acheter » sa liberté pour 20 millions de dirhams marocains (soit 1,9 million d'euros). 
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Arrestation et condamnation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la nuit du 3 au 4 août 2003, un règlement de comptes entre trafiquants de drogue — à base de coups de sabre et de battes de baseball[2] — éclate dans le complexe de Kabila à Tétouan, aux abords de la résidence de vacances du roi du Maroc, Mohammed VI[4]. Plusieurs trafiquants, dont Mounir Erramach, sont par la suite arrêtés par la police et celui-ci balance les noms de nombreux complices ainsi que de deux hauts fonctionnaires marocains qui l'auraient protégé[2]. Le 26 mai 2004, Mounir Erramach est condamné à 20 ans de prison ferme et à une amende de 3 372 360 000 dirhams marocains (soit 307 559 232 euros) par la Cour d'appel de Tétouan[5],[6], au terme d'un procès qui a révélé les implications de nombreux cadres de la gendarmerie royale, de l'armée royale et de la DGSN dans le narcotrafic de haschich et de cocaïne[4]. Il est incarcéré à la prison centrale de Kénitra[7]. 
-En septembre 2006, Mounir Erramach et Mohamed Taïeb Ahmed « el-Ouazzani » (autre baron de la drogue marocain incarcéré à la prison de Salé) indiquent à la DST que le véritable parrain du narcotrafic dans le Rif ne serait d'autre que Mohamed El Kharaz de Ksar Sghir, arrêté quelques jours auparavant[7]. 
-En janvier 2020, certains médias font état de sa libération anticipée[8].
-Début mai 2024, des médias font état de sa libération de la prison de Ras El Ma à Fès[9],[10]. D'autres médias indiquent qu'il est toujours incarcéré à la prison centrale de Kénitra ou à la prison locale Toulal 2 de Meknès, où il purgerait une peine de trois années supplémentaires en raison de son incapacité à verser une compensation financière à l'administration des douanes[11],[12],[13],[14]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la nuit du 3 au 4 août 2003, un règlement de comptes entre trafiquants de drogue — à base de coups de sabre et de battes de baseball — éclate dans le complexe de Kabila à Tétouan, aux abords de la résidence de vacances du roi du Maroc, Mohammed VI. Plusieurs trafiquants, dont Mounir Erramach, sont par la suite arrêtés par la police et celui-ci balance les noms de nombreux complices ainsi que de deux hauts fonctionnaires marocains qui l'auraient protégé. Le 26 mai 2004, Mounir Erramach est condamné à 20 ans de prison ferme et à une amende de 3 372 360 000 dirhams marocains (soit 307 559 232 euros) par la Cour d'appel de Tétouan au terme d'un procès qui a révélé les implications de nombreux cadres de la gendarmerie royale, de l'armée royale et de la DGSN dans le narcotrafic de haschich et de cocaïne. Il est incarcéré à la prison centrale de Kénitra. 
+En septembre 2006, Mounir Erramach et Mohamed Taïeb Ahmed « el-Ouazzani » (autre baron de la drogue marocain incarcéré à la prison de Salé) indiquent à la DST que le véritable parrain du narcotrafic dans le Rif ne serait d'autre que Mohamed El Kharaz de Ksar Sghir, arrêté quelques jours auparavant. 
+En janvier 2020, certains médias font état de sa libération anticipée.
+Début mai 2024, des médias font état de sa libération de la prison de Ras El Ma à Fès,. D'autres médias indiquent qu'il est toujours incarcéré à la prison centrale de Kénitra ou à la prison locale Toulal 2 de Meknès, où il purgerait une peine de trois années supplémentaires en raison de son incapacité à verser une compensation financière à l'administration des douanes. 
 </t>
         </is>
       </c>
